--- a/test_data/TestFlags.xlsx
+++ b/test_data/TestFlags.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANB\ANB\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698F0004-3C7B-4CAA-98A7-7B1376E6826B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF58ADA-84E9-4371-9845-B89C26E18E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="flagsheet" sheetId="1" r:id="rId1"/>
-    <sheet name="SDNonInt" sheetId="3" r:id="rId2"/>
-    <sheet name="assignToNames" sheetId="2" r:id="rId3"/>
+    <sheet name="assignToNames" sheetId="2" r:id="rId1"/>
+    <sheet name="flagsheet" sheetId="1" r:id="rId2"/>
+    <sheet name="SDNonInt" sheetId="3" r:id="rId3"/>
+    <sheet name="opofdp" sheetId="5" r:id="rId4"/>
+    <sheet name="clearanceletter" sheetId="7" r:id="rId5"/>
+    <sheet name="earlysettlment" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>RequestName</t>
   </si>
@@ -108,6 +111,73 @@
   </si>
   <si>
     <t xml:space="preserve"> Inquiry &gt; Internet Services / خدمات الأنترنت &gt; SARIE (Quick Transfer IPS) (RIB\MIB) &gt; The Inability To Register In IPS / عدم القدرة على التسجيل في نظام IPS</t>
+  </si>
+  <si>
+    <t>Obligation Paid Off letter for deceased person</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Request &gt; Current Account &gt; Service &gt; Obligation Paid Off Letter For Deceased Person</t>
+  </si>
+  <si>
+    <t>Obligation Paid Off Letter For Deceased Person</t>
+  </si>
+  <si>
+    <t>ffgpvkc y cqbanwl</t>
+  </si>
+  <si>
+    <t>RequestFullName</t>
+  </si>
+  <si>
+    <t>Deceased Agent</t>
+  </si>
+  <si>
+    <t>Issuing  Agent</t>
+  </si>
+  <si>
+    <t>Issuing  Supervisor</t>
+  </si>
+  <si>
+    <t>Clearance letter of two salaries with obligation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Request &gt; Current Account &gt; Clearance letter &gt; Clearance letter of two salaries with obligation</t>
+  </si>
+  <si>
+    <t>Retention Loan Agent</t>
+  </si>
+  <si>
+    <t>Retention Loan Supervisor</t>
+  </si>
+  <si>
+    <t>Retention Card Agent</t>
+  </si>
+  <si>
+    <t>eozhbyeud nycawfpsh</t>
+  </si>
+  <si>
+    <t>Active Card Flow</t>
+  </si>
+  <si>
+    <t>Non Active Card Flow</t>
+  </si>
+  <si>
+    <t>Khalid M. Alenazy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Request &gt; Personal Loans &gt; Settlement And Financial Transaction &gt; Early settlement</t>
+  </si>
+  <si>
+    <t>Early settlement</t>
+  </si>
+  <si>
+    <t>Cadmin After Sales Agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eozhbyeud nycawfpsh
+</t>
+  </si>
+  <si>
+    <t>CADMIN Support Team</t>
   </si>
 </sst>
 </file>
@@ -155,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -165,6 +235,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,11 +515,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EDC83E-69C2-4DD8-820B-52DA9139C1ED}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,18 +691,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F94FC5-57AF-4103-A2A7-C994B5B7BBC1}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
     <col min="3" max="3" width="62.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
@@ -616,50 +775,233 @@
         <v>26</v>
       </c>
     </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EDC83E-69C2-4DD8-820B-52DA9139C1ED}">
-  <dimension ref="A1:A5"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2778D96E-B4D6-4587-A5B7-E17796509CFA}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8585295</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EEC801-5EC2-4B1C-B6D6-6B61E653905E}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8585295</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8585295</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD0429A-B019-41BF-8B88-32C3E1B8FD06}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8585295</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8585295</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>